--- a/Data/EC/NIT-9014803991.xlsx
+++ b/Data/EC/NIT-9014803991.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{706A39B4-0FC9-4201-A440-C45F8F661995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3230A6D5-BE1D-42DB-A1EB-E42BC9FBCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6276B8D2-F709-44C3-909C-68058784A173}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE0F7EA3-6D52-485C-A79E-935B38720091}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73186208</t>
+  </si>
+  <si>
+    <t>SEGUNDO JAVIER SALGADO REYES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>9299898</t>
+  </si>
+  <si>
+    <t>FRESMAN MARTINEZ PANZA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>1002388835</t>
   </si>
   <si>
     <t>JERSON AMAURY PIEDRAHITA QUINTANA</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2505</t>
   </si>
   <si>
-    <t>2506</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2306</t>
   </si>
   <si>
     <t>2305</t>
   </si>
   <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
     <t>20506516</t>
   </si>
   <si>
     <t>MERLY CHAVEZ NIGRINIS</t>
   </si>
   <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>9299898</t>
-  </si>
-  <si>
-    <t>FRESMAN MARTINEZ PANZA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
+    <t>1143339954</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER RAMIREZ YEPES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B20846-7433-C358-F43E-5653ABF0CA4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C7E117-4EB3-DB99-E34F-72949AD6D96E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A8C10-8072-48C4-AFA9-99E884977E96}">
-  <dimension ref="B2:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACEF899-A209-48C2-A6EB-47608B37F11C}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -945,7 +960,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +1005,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1037,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1711898</v>
+        <v>1802565</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1053,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>66000</v>
+        <v>2467</v>
       </c>
       <c r="G16" s="18">
-        <v>1650000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>66000</v>
+        <v>1898</v>
       </c>
       <c r="G17" s="18">
-        <v>1650000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>66000</v>
@@ -1158,13 +1173,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>66000</v>
@@ -1181,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>66000</v>
@@ -1204,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>66000</v>
@@ -1227,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>66000</v>
@@ -1250,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
         <v>66000</v>
@@ -1273,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>66000</v>
@@ -1296,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>66000</v>
@@ -1319,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>66000</v>
@@ -1342,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>66000</v>
@@ -1365,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>66000</v>
@@ -1388,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>66000</v>
@@ -1411,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>66000</v>
@@ -1434,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>60000</v>
+        <v>66000</v>
       </c>
       <c r="G31" s="18">
-        <v>1500000</v>
+        <v>1650000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>66000</v>
@@ -1480,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>66000</v>
@@ -1503,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>66000</v>
@@ -1526,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>66000</v>
@@ -1549,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>66000</v>
@@ -1572,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>66000</v>
@@ -1595,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>66000</v>
@@ -1618,19 +1633,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F39" s="18">
-        <v>1898</v>
+        <v>66000</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1650000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
@@ -1664,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
@@ -1683,56 +1698,125 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="24">
-        <v>66000</v>
-      </c>
-      <c r="G42" s="24">
-        <v>1650000</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F42" s="18">
+        <v>66000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1650000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="18">
+        <v>66000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1650000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="24">
+        <v>22200</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1850000</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014803991.xlsx
+++ b/Data/EC/NIT-9014803991.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3230A6D5-BE1D-42DB-A1EB-E42BC9FBCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4302BB-CD75-41F1-99F0-5D8A99CE511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE0F7EA3-6D52-485C-A79E-935B38720091}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3050777C-4556-4FBB-89A6-20CDDC4F6285}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,99 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1002388835</t>
+  </si>
+  <si>
+    <t>JERSON AMAURY PIEDRAHITA QUINTANA</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>20506516</t>
+  </si>
+  <si>
+    <t>MERLY CHAVEZ NIGRINIS</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>9299898</t>
+  </si>
+  <si>
+    <t>FRESMAN MARTINEZ PANZA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>73186208</t>
   </si>
   <si>
@@ -74,103 +167,7 @@
     <t>2507</t>
   </si>
   <si>
-    <t>9299898</t>
-  </si>
-  <si>
-    <t>FRESMAN MARTINEZ PANZA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1002388835</t>
-  </si>
-  <si>
-    <t>JERSON AMAURY PIEDRAHITA QUINTANA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>20506516</t>
-  </si>
-  <si>
-    <t>MERLY CHAVEZ NIGRINIS</t>
-  </si>
-  <si>
-    <t>1143339954</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER RAMIREZ YEPES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -269,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -282,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -484,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C7E117-4EB3-DB99-E34F-72949AD6D96E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F455F2-9E57-704B-E77D-2A27DF331B6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACEF899-A209-48C2-A6EB-47608B37F11C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3C4515-D70C-4DC6-BE82-CAE27636CD7E}">
   <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -960,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1005,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1037,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1802565</v>
+        <v>1846365</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1090,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1113,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>2467</v>
+        <v>66000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1650000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1127,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>1898</v>
+        <v>66000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1650000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1150,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>66000</v>
@@ -1173,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>66000</v>
@@ -1196,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>66000</v>
@@ -1219,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>66000</v>
@@ -1242,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>66000</v>
@@ -1265,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>66000</v>
@@ -1288,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>66000</v>
@@ -1311,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>66000</v>
@@ -1334,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>66000</v>
@@ -1357,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>66000</v>
@@ -1380,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>66000</v>
@@ -1403,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>66000</v>
@@ -1426,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>66000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1650000</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1449,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>66000</v>
@@ -1472,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>66000</v>
@@ -1495,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>66000</v>
@@ -1518,13 +1515,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>66000</v>
@@ -1541,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>66000</v>
@@ -1564,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>66000</v>
@@ -1587,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>66000</v>
+        <v>1898</v>
       </c>
       <c r="G37" s="18">
-        <v>1650000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1610,10 +1607,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>35</v>
@@ -1633,10 +1630,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>36</v>
@@ -1656,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
@@ -1679,10 +1676,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
@@ -1702,10 +1699,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>39</v>
@@ -1725,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>66000</v>
+        <v>2467</v>
       </c>
       <c r="G43" s="18">
-        <v>1650000</v>
+        <v>1850000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1748,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F44" s="18">
-        <v>60000</v>
+        <v>66000</v>
       </c>
       <c r="G44" s="18">
-        <v>1500000</v>
+        <v>1650000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1771,19 +1768,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="F45" s="24">
-        <v>22200</v>
+        <v>66000</v>
       </c>
       <c r="G45" s="24">
-        <v>1850000</v>
+        <v>1650000</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
@@ -1791,22 +1788,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="32"/>
       <c r="H50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="32"/>
       <c r="H51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
